--- a/TestResults/HolidayPut.xlsx
+++ b/TestResults/HolidayPut.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="116">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -64,22 +64,22 @@
 	},
 	"holiday":
 	{
-		"holidayName":"TestHDName",
-		"holidayDateParamText":"TestHDDateParam"
+		"holidayName":"TestHDPut",
+		"holidayDateParameterText":"TestForHolidayPutA"
 	}
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">Response_HolidayId: 9013583257821525879
-Input_HolidayName: TestHDName
-Input_HolidayParamaText: TestHDDateParam
+    <t xml:space="preserve">Response_HolidayId: 2886459217413346580
+Input_HolidayName: TestHDPut
+Input_holidayDateParameterText: TestForHolidayPutA
 Input_LastUpdateUserName: Automation
 </t>
   </si>
   <si>
-    <t xml:space="preserve">DB_HolidayId: 9013583257821525879
-DB_HolidayName: TestHDName
-DB_HolidayParamaText: TestHDDateParam
+    <t xml:space="preserve">DB_HolidayId: 2886459217413346580
+DB_HolidayName: TestHDPut
+DB_holidayDateParameterText: TestForHolidayPutA
 DB_LastUpdateUserName: Automation
 </t>
   </si>
@@ -96,16 +96,19 @@
 	{
 		"userName":"Automation",
 		"version":"1.0.0",
+		"transactionId":"5e058365-3629-4fde-9fea-3ca9a48a8d8c",
+		"timeStamp":"2020-06-19 08:33:33",
+		"statusCode":"200",
 		"message":
 		{
 			"status":"SUCCESS",
-			"internalMessage":"Holiday Details successfully updated with HolidayId :9013583257821525879",
+			"internalMessage":"Holiday Details successfully updated with holidayId :2886459217413346580",
 			"data":null
 		}
 	},
 	"data":
 	{
-		"holidayId":9013583257821525879
+		"holidayId":2886459217413346580
 	}
 }</t>
   </si>
@@ -114,6 +117,839 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>TC_19</t>
+  </si>
+  <si>
+    <t>Verify the JMS-PASSED queue after the Holiday Put request sent</t>
+  </si>
+  <si>
+    <t>JMS</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_holidayId: 2886459217413346580
+DB_holidayId: 2886459217413346580
+Response_holidayName: TestHDPut
+DB_holidayName: TestHDPut
+Response_holidayDateParamText: TestForHolidayPutA
+DB_holidayDateParamText: TestForHolidayPutA
+</t>
+  </si>
+  <si>
+    <t>TC_02</t>
+  </si>
+  <si>
+    <t>Validate that the Holiday service is not getting updated when the Holiday Name is empty in JSON Request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"holiday":
+	{
+		"holidayName":"",
+		"holidayDateParameterText":"TestForHolidayPut"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_HolidayName: 
+Input_holidayDateParameterText: TestForHolidayPut
+</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 400 Bad Request</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"b6d33a2d-082a-4e73-adfa-42b076b3dc0a",
+		"timeStamp":"2020-06-19 08:33:48",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"holidayName",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>Verify that the Holiday service is successfully updated when the empty value is passed in JSON for holidayDateParamText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"holiday":
+	{
+		"holidayName":"TestHDNM",
+		"holidayDateParameterText":""
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_HolidayId: 7981215801976543246
+Input_HolidayName: TestHDNM
+Input_holidayDateParameterText: 
+Input_LastUpdateUserName: Automation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB_HolidayId: 7981215801976543246
+DB_HolidayName: TestHDNM
+DB_holidayDateParameterText: 
+DB_LastUpdateUserName: Automation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation",
+		"version":"1.0.0",
+		"transactionId":"7e19ab7a-cacb-4085-81e6-8812db6dd32c",
+		"timeStamp":"2020-06-19 08:33:50",
+		"statusCode":"200",
+		"message":
+		{
+			"status":"SUCCESS",
+			"internalMessage":"Holiday Details successfully updated with holidayId :7981215801976543246",
+			"data":null
+		}
+	},
+	"data":
+	{
+		"holidayId":7981215801976543246
+	}
+}</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the meta data section is not passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"holiday":
+	{
+		"holidayName":"TestHDPut",
+		"holidayDateParameterText":"TestForHolidayPut"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_HolidayName: TestHDPut
+Input_holidayDateParameterText: TestForHolidayPut
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"ff07fbe4-c414-4b7f-86f2-38bcc30fe885",
+		"timeStamp":"2020-06-19 08:33:52",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"meta",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_05</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the holidayName attribute is not passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"holiday":
+	{
+		"holidayDateParameterText":"TestForHolidayPut"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"5ac744b1-0e5f-4e7b-91f1-e0a6469457f8",
+		"timeStamp":"2020-06-19 08:33:54",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"holidayName",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_06</t>
+  </si>
+  <si>
+    <t>Verify that the Holiday service is successfully created when holidayDateParamText ATTRIBUTE is NOT passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"holiday":
+	{
+		"holidayName":"TestHDPut"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_HolidayId: 2886459217413346580
+Input_HolidayName: TestHDPut
+Input_holidayDateParameterText: 
+Input_LastUpdateUserName: Automation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB_HolidayId: 2886459217413346580
+DB_HolidayName: TestHDPut
+DB_holidayDateParameterText: 
+DB_LastUpdateUserName: Automation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation",
+		"version":"1.0.0",
+		"transactionId":"2dec84d9-9318-432f-82e6-dc59dc5c25fd",
+		"timeStamp":"2020-06-19 08:33:56",
+		"statusCode":"200",
+		"message":
+		{
+			"status":"SUCCESS",
+			"internalMessage":"Holiday Details successfully updated with holidayId :2886459217413346580",
+			"data":null
+		}
+	},
+	"data":
+	{
+		"holidayId":2886459217413346580
+	}
+}</t>
+  </si>
+  <si>
+    <t>TC_07</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the user name is null or Empty in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":""
+	},
+	"holiday":
+	{
+		"holidayName":"TestHDName",
+		"holidayDateParameterText":"TestHDDateParam"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 
+Input_HolidayName: TestHDName
+Input_holidayDateParameterText: TestHDDateParam
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"7529d6dd-bb4f-4a8b-8601-835df8e2e303",
+		"timeStamp":"2020-06-19 08:33:58",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"userName",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_08</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the holidayName is more than 65 characters length in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"holiday":
+	{
+		"holidayName":"TestHDNameTestHDNameTestHDNameTestHDNameTestHDNameTestHDNameTestHDName",
+		"holidayDateParameterText":"TestHDDateParam"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_HolidayName: TestHDNameTestHDNameTestHDNameTestHDNameTestHDNameTestHDNameTestHDName
+Input_holidayDateParameterText: TestHDDateParam
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"54c11f86-77d3-43bd-b925-27037961d44e",
+		"timeStamp":"2020-06-19 08:34:00",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"holidayName",
+			"message":" cannot be greater than 65 characters"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_09</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the holidayDateParamText is more than 400 characters length in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"holiday":
+	{
+		"holidayName":"TestHDName",
+		"holidayDateParameterText":"TestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_Dat_PUT"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_HolidayName: TestHDName
+Input_holidayDateParameterText: TestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_Dat_PUT
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"905058d8-ac1d-4ba7-a327-86fe4f8a4d96",
+		"timeStamp":"2020-06-19 08:34:02",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"holidayDateParameterText",
+			"message":"holidayDateParamText cannot be greater than 400 characters"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_10</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the User Name is more than 25 characters length in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"AutomationAutomationAutomationAutomation"
+	},
+	"holiday":
+	{
+		"holidayName":"TestHDName",
+		"holidayDateParameterText":"TestHDDateParam"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: AutomationAutomationAutomationAutomation
+Input_HolidayName: TestHDName
+Input_holidayDateParameterText: TestHDDateParam
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"7c20cc4a-f759-4693-bd6b-351b48d92f16",
+		"timeStamp":"2020-06-19 08:34:03",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"userName",
+			"message":" cannot be greater than 25 characters"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_11</t>
+  </si>
+  <si>
+    <t>Verify that the Exception is received when the URI is not correct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"holiday":
+	{
+		"holidayName":"TestHDName",
+		"holidayDateParameterText":"TestHDDateParam"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_HolidayName: TestHDName
+Input_holidayDateParameterText: TestHDDateParam
+</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 404 Not Found</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"9f9aca43-480f-4c3e-b271-03f6ef150a34",
+		"timeStamp":"2020-06-19 08:34:05",
+		"statusCode":"404",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Exception",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"Could not find the PUT method for URL /v1/h"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_12</t>
+  </si>
+  <si>
+    <t>Verify that the Holiday service is successfully updated when valid values are passed for all attributes with exact length in JSON Request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"holiday":
+	{
+		"holidayName":"HolidayNameLengthHolidayNameLengthHolidayNameLengthHolidayNameLeB",
+		"holidayDateParameterText":"HolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayPac"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_HolidayId: 5755800033595186971
+Input_HolidayName: HolidayNameLengthHolidayNameLengthHolidayNameLengthHolidayNameLeB
+Input_holidayDateParameterText: HolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayPac
+Input_LastUpdateUserName: Automation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB_HolidayId: 5755800033595186971
+DB_HolidayName: HolidayNameLengthHolidayNameLengthHolidayNameLengthHolidayNameLeB
+DB_holidayDateParameterText: HolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayPac
+DB_LastUpdateUserName: Automation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation",
+		"version":"1.0.0",
+		"transactionId":"6f5fb911-5e55-417c-8748-0602e21ac843",
+		"timeStamp":"2020-06-19 08:34:06",
+		"statusCode":"200",
+		"message":
+		{
+			"status":"SUCCESS",
+			"internalMessage":"Holiday Details successfully updated with holidayId :5755800033595186971",
+			"data":null
+		}
+	},
+	"data":
+	{
+		"holidayId":5755800033595186971
+	}
+}</t>
+  </si>
+  <si>
+    <t>TC_13</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is displayed when the Invalid holidayId (not exist in DB) is provided</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"holiday":
+	{
+		"holidayName":"TestHDName1",
+		"holidayDateParameterText":"TestHDDateParam1"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_HolidayName: TestHDName1
+Input_holidayDateParameterText: TestHDDateParam1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"d230b26b-5c92-454b-9a35-28d229b480a9",
+		"timeStamp":"2020-06-19 08:34:09",
+		"statusCode":"404",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Resource Not Found",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"Record not found"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_14</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is displayed when the Invalid holidayId (alphabets) is provided</t>
+  </si>
+  <si>
+    <t>{"meta":{"version":"1.0.0","transactionId":"7aa8e0ae-de79-409b-85d3-953b54ba1c30","timeStamp":"2020-06-19 08:34:11","statusCode":"404","message":{"status":"ERROR","internalMessage":"Exception","data":{"errorMessage":"Request Submitted With Error"}}},"errors":[{"fieldName":"Error","message":null}]}</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Not correct format for Id!</t>
+  </si>
+  <si>
+    <t>TC_15</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is displayed when the Invalid holidayId (special characters) is provided</t>
+  </si>
+  <si>
+    <t>{"meta":{"version":"1.0.0","transactionId":"8ad511b3-941a-417e-b602-a8cd3e64f5c6","timeStamp":"2020-06-19 08:34:12","statusCode":"404","message":{"status":"ERROR","internalMessage":"Exception","data":{"errorMessage":"Request Submitted With Error"}}},"errors":[{"fieldName":"Error","message":null}]}</t>
+  </si>
+  <si>
+    <t>TC_16</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when if any comma/bracket is missing in request then  will get the JSON parse error: Unexpected character in response.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	}"holiday":
+	{
+		"holidayName":"TestHDPut" "holidayDateParameterText":"TestForHolidayPutA"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_HolidayName: TestHDPut
+Input_holidayDateParameterText: TestForHolidayPutA
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"e1d81bd8-c7bc-4589-9c5f-79a59c161ef5",
+		"timeStamp":"2020-06-19 08:34:14",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Json Parser Error",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"JSON parse error: Unexpected character ('\"' (code 34)): was expecting comma to separate Object entries"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_17</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when we use PUT url but selecting GET method.</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 405 Method Not Allowed</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"4b4f2344-f7c3-4aeb-8037-e5ae2bd07f0e",
+		"timeStamp":"2020-06-19 08:34:16",
+		"statusCode":"405",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"No Such API Exists",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"Request method 'GET' not supported"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_18</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when missing HTTP Header X-CSR-SECURITY_TOKEN.</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 401 Unauthorized</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"timeStamp":"2020-06-19T08:34:18.590+0000",
+		"statusCode":"401",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Security Error",
+			"data":
+			{
+				"errorMessage":"Exception occurred in Security Filter"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"NA",
+			"message":"Missing HTTP header X-CSR-SECURITY_TOKEN"
+		}
+	]
+}</t>
   </si>
 </sst>
 </file>
@@ -121,7 +957,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="211">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -134,6 +970,996 @@
       <sz val="11.0"/>
       <color indexed="9"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -257,7 +2083,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -293,6 +2119,600 @@
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -307,17 +2727,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5859375" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.24609375" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="35.15625" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.24609375" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.37890625" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5859375" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.82421875" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.24609375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="35.15625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.24609375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.37890625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5859375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.82421875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.0" customHeight="true">
@@ -391,6 +2811,654 @@
       </c>
       <c r="L2"/>
     </row>
+    <row r="3">
+      <c r="A3" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s" s="14">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s" s="15">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s" s="16">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s" s="17">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s" s="18">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s" s="19">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s" s="20">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s" s="21">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s" s="22">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s" s="23">
+        <v>21</v>
+      </c>
+      <c r="L3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="24">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s" s="25">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s" s="26">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s" s="27">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s" s="28">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s" s="29">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s" s="30">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s" s="31">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s" s="32">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s" s="33">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s" s="34">
+        <v>21</v>
+      </c>
+      <c r="L4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s" s="36">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s" s="37">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="38">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s" s="39">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s" s="40">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s" s="41">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s" s="42">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s" s="43">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s" s="44">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s" s="45">
+        <v>21</v>
+      </c>
+      <c r="L5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="46">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s" s="47">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s" s="48">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s" s="49">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s" s="50">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s" s="51">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s" s="52">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s" s="53">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s" s="54">
+        <v>44</v>
+      </c>
+      <c r="J6" t="s" s="55">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s" s="56">
+        <v>21</v>
+      </c>
+      <c r="L6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="57">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s" s="58">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s" s="59">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s" s="60">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s" s="61">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s" s="62">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s" s="63">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s" s="64">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s" s="65">
+        <v>48</v>
+      </c>
+      <c r="J7" t="s" s="66">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s" s="67">
+        <v>21</v>
+      </c>
+      <c r="L7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="68">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s" s="69">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s" s="70">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s" s="71">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s" s="72">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s" s="73">
+        <v>53</v>
+      </c>
+      <c r="G8" t="s" s="74">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s" s="75">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s" s="76">
+        <v>54</v>
+      </c>
+      <c r="J8" t="s" s="77">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s" s="78">
+        <v>21</v>
+      </c>
+      <c r="L8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="79">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s" s="80">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s" s="81">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s" s="82">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s" s="83">
+        <v>58</v>
+      </c>
+      <c r="F9" t="s" s="84">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s" s="85">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s" s="86">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s" s="87">
+        <v>59</v>
+      </c>
+      <c r="J9" t="s" s="88">
+        <v>20</v>
+      </c>
+      <c r="K9" t="s" s="89">
+        <v>21</v>
+      </c>
+      <c r="L9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="90">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s" s="91">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s" s="92">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s" s="93">
+        <v>62</v>
+      </c>
+      <c r="E10" t="s" s="94">
+        <v>63</v>
+      </c>
+      <c r="F10" t="s" s="95">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s" s="96">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s" s="97">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s" s="98">
+        <v>64</v>
+      </c>
+      <c r="J10" t="s" s="99">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s" s="100">
+        <v>21</v>
+      </c>
+      <c r="L10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="101">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s" s="102">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s" s="103">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="104">
+        <v>67</v>
+      </c>
+      <c r="E11" t="s" s="105">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s" s="106">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s" s="107">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s" s="108">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s" s="109">
+        <v>69</v>
+      </c>
+      <c r="J11" t="s" s="110">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s" s="111">
+        <v>21</v>
+      </c>
+      <c r="L11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="112">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s" s="113">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s" s="114">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s" s="115">
+        <v>72</v>
+      </c>
+      <c r="E12" t="s" s="116">
+        <v>73</v>
+      </c>
+      <c r="F12" t="s" s="117">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s" s="118">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s" s="119">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s" s="120">
+        <v>74</v>
+      </c>
+      <c r="J12" t="s" s="121">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s" s="122">
+        <v>21</v>
+      </c>
+      <c r="L12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="123">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s" s="124">
+        <v>76</v>
+      </c>
+      <c r="C13" t="s" s="125">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s" s="126">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s" s="127">
+        <v>78</v>
+      </c>
+      <c r="F13" t="s" s="128">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s" s="129">
+        <v>79</v>
+      </c>
+      <c r="H13" t="s" s="130">
+        <v>80</v>
+      </c>
+      <c r="I13" t="s" s="131">
+        <v>81</v>
+      </c>
+      <c r="J13" t="s" s="132">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s" s="133">
+        <v>21</v>
+      </c>
+      <c r="L13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="134">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s" s="135">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s" s="136">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s" s="137">
+        <v>84</v>
+      </c>
+      <c r="E14" t="s" s="138">
+        <v>85</v>
+      </c>
+      <c r="F14" t="s" s="139">
+        <v>86</v>
+      </c>
+      <c r="G14" t="s" s="140">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s" s="141">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s" s="142">
+        <v>87</v>
+      </c>
+      <c r="J14" t="s" s="143">
+        <v>20</v>
+      </c>
+      <c r="K14" t="s" s="144">
+        <v>21</v>
+      </c>
+      <c r="L14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="145">
+        <v>88</v>
+      </c>
+      <c r="B15" t="s" s="146">
+        <v>89</v>
+      </c>
+      <c r="C15" t="s" s="147">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s" s="148">
+        <v>90</v>
+      </c>
+      <c r="E15" t="s" s="149">
+        <v>91</v>
+      </c>
+      <c r="F15" t="s" s="150">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s" s="151">
+        <v>79</v>
+      </c>
+      <c r="H15" t="s" s="152">
+        <v>80</v>
+      </c>
+      <c r="I15" t="s" s="153">
+        <v>92</v>
+      </c>
+      <c r="J15" t="s" s="154">
+        <v>20</v>
+      </c>
+      <c r="K15" t="s" s="155">
+        <v>21</v>
+      </c>
+      <c r="L15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="156">
+        <v>93</v>
+      </c>
+      <c r="B16" t="s" s="157">
+        <v>94</v>
+      </c>
+      <c r="C16" t="s" s="158">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s" s="159">
+        <v>77</v>
+      </c>
+      <c r="E16" t="s" s="160">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s" s="161">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s" s="162">
+        <v>79</v>
+      </c>
+      <c r="H16" t="s" s="163">
+        <v>80</v>
+      </c>
+      <c r="I16" t="s" s="164">
+        <v>95</v>
+      </c>
+      <c r="J16" t="s" s="165">
+        <v>96</v>
+      </c>
+      <c r="K16" t="s" s="166">
+        <v>97</v>
+      </c>
+      <c r="L16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="167">
+        <v>98</v>
+      </c>
+      <c r="B17" t="s" s="168">
+        <v>99</v>
+      </c>
+      <c r="C17" t="s" s="169">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s" s="170">
+        <v>77</v>
+      </c>
+      <c r="E17" t="s" s="171">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s" s="172">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s" s="173">
+        <v>79</v>
+      </c>
+      <c r="H17" t="s" s="174">
+        <v>80</v>
+      </c>
+      <c r="I17" t="s" s="175">
+        <v>100</v>
+      </c>
+      <c r="J17" t="s" s="176">
+        <v>96</v>
+      </c>
+      <c r="K17" t="s" s="177">
+        <v>97</v>
+      </c>
+      <c r="L17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="178">
+        <v>101</v>
+      </c>
+      <c r="B18" t="s" s="179">
+        <v>102</v>
+      </c>
+      <c r="C18" t="s" s="180">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s" s="181">
+        <v>103</v>
+      </c>
+      <c r="E18" t="s" s="182">
+        <v>104</v>
+      </c>
+      <c r="F18" t="s" s="183">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s" s="184">
+        <v>31</v>
+      </c>
+      <c r="H18" t="s" s="185">
+        <v>32</v>
+      </c>
+      <c r="I18" t="s" s="186">
+        <v>105</v>
+      </c>
+      <c r="J18" t="s" s="187">
+        <v>20</v>
+      </c>
+      <c r="K18" t="s" s="188">
+        <v>21</v>
+      </c>
+      <c r="L18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="189">
+        <v>106</v>
+      </c>
+      <c r="B19" t="s" s="190">
+        <v>107</v>
+      </c>
+      <c r="C19" t="s" s="191">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s" s="192">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s" s="193">
+        <v>104</v>
+      </c>
+      <c r="F19" t="s" s="194">
+        <v>25</v>
+      </c>
+      <c r="G19" t="s" s="195">
+        <v>108</v>
+      </c>
+      <c r="H19" t="s" s="196">
+        <v>109</v>
+      </c>
+      <c r="I19" t="s" s="197">
+        <v>110</v>
+      </c>
+      <c r="J19" t="s" s="198">
+        <v>20</v>
+      </c>
+      <c r="K19" t="s" s="199">
+        <v>21</v>
+      </c>
+      <c r="L19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="200">
+        <v>111</v>
+      </c>
+      <c r="B20" t="s" s="201">
+        <v>112</v>
+      </c>
+      <c r="C20" t="s" s="202">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s" s="203">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s" s="204">
+        <v>104</v>
+      </c>
+      <c r="F20" t="s" s="205">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s" s="206">
+        <v>113</v>
+      </c>
+      <c r="H20" t="s" s="207">
+        <v>114</v>
+      </c>
+      <c r="I20" t="s" s="208">
+        <v>115</v>
+      </c>
+      <c r="J20" t="s" s="209">
+        <v>20</v>
+      </c>
+      <c r="K20" t="s" s="210">
+        <v>21</v>
+      </c>
+      <c r="L20"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
